--- a/report/input/web_north.xlsx
+++ b/report/input/web_north.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <col customWidth="1" max="2" min="2" width="9.138571428571428"/>
     <col customWidth="1" max="3" min="3" width="21.99571428571429"/>
     <col customWidth="1" max="4" min="4" width="8.710000000000001"/>
-    <col customWidth="1" max="5" min="5" width="11.42428571428571"/>
+    <col customWidth="1" max="5" min="5" width="11.28142857142857"/>
     <col customWidth="1" max="6" min="6" width="6.424285714285715"/>
     <col customWidth="1" max="7" min="7" width="11.42428571428571"/>
     <col customWidth="1" max="8" min="8" width="12.71"/>
@@ -580,37 +580,39 @@
       <c r="A4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>61015749</v>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>in01067a</t>
+        </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Cibaca 20g+10g Free</t>
+          <t>Total 120 + Premia</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>East Hub</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>6768</v>
+        <v>1197</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="5">
@@ -618,36 +620,36 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1608101</v>
+        <v>61017108</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>CAS 100 Santoor</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>IN73</t>
+          <t>IN64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>PATNA</t>
+          <t>MADRAS</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>500</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>3000</v>
+        <v>544</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="6">
@@ -655,36 +657,36 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>61016004</v>
+        <v>61013339</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>CDC 44gm Bundle</t>
+          <t>CDC 100+svs</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>IN73</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>PATNA</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>650</v>
+        <v>785</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>15600</v>
+        <v>9420</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="7">
@@ -701,12 +703,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>IN91</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Siliguri</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -715,13 +717,13 @@
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>8</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>2480</v>
+        <v>2144</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="8">
@@ -729,36 +731,36 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1601002</v>
+        <v>1601052</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>COL DEN/CRM 200G - CSD</t>
+          <t>COL DEN/CRM 100G - CSD</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>IN91</t>
+          <t>IN68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>SILIGURI</t>
+          <t>BARODA</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>600</v>
+        <v>9000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="9">
@@ -766,36 +768,36 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>61017108</v>
+        <v>1608101</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>CAS 100 Santoor</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>IN64</t>
+          <t>IN72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>MADRAS</t>
+          <t>GUWAHATI</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>68</v>
+        <v>600</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>544</v>
+        <v>3600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="10">
@@ -812,27 +814,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>IN91</t>
+          <t>IN71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>SILIGURI</t>
+          <t>BANGALORE</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>183</v>
+        <v>600</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1098</v>
+        <v>3600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="11">
@@ -840,36 +842,36 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>61013339</v>
+        <v>1608101</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>CDC 100+svs</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>IN73</t>
+          <t>IN67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>PATNA</t>
+          <t>INDORE</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
         <v>500</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="12">
@@ -877,36 +879,36 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>61013339</v>
+        <v>1608101</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>CDC 100+svs</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>IN62</t>
+          <t>IN68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>CALCUTTA</t>
+          <t>BARODA</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="13">
@@ -914,36 +916,36 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>61017108</v>
+        <v>1601052</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>CAS 100 Santoor</t>
+          <t>COL DEN/CRM 100G - CSD</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>IN72</t>
+          <t>IN67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>GUWAHATI</t>
+          <t>INDORE</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>525</v>
+        <v>200</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>4200</v>
+        <v>2400</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="14">
@@ -951,21 +953,21 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>61016120</v>
+        <v>1608101</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>CAS 44</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>IN69</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>HYDERABAD</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -974,13 +976,13 @@
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="15">
@@ -989,22 +991,22 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>IN01003A</t>
+          <t>IN01005A</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Col Herbal 200g - 8</t>
+          <t>Total 120g - 9 dz ca</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>IN69</t>
+          <t>IN71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>HYDERABAD</t>
+          <t>BANGALORE</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1013,13 +1015,13 @@
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="16">
@@ -1028,22 +1030,22 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>IN01183A</t>
+          <t>IN01005A</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Sen Mega Saver 80g</t>
+          <t>Total 120g - 9 dz ca</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>IN69</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>HYDERABAD</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1052,13 +1054,161 @@
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>600</v>
+        <v>1800</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>61016004</v>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>CDC 44gm Bundle</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>IN71</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>BANGALORE</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>61016004</v>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>CDC 44gm Bundle</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>IN67</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>INDORE</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>I01</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>61015749</v>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Cibaca 20g+10g Free</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>IN67</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>INDORE</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I01</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>4992</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>61016950</v>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Cibaca 20g+Tbr Free</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>IN73</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>PATNA</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>1333</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>15996</v>
       </c>
     </row>
   </sheetData>

--- a/report/input/web_north.xlsx
+++ b/report/input/web_north.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <col customWidth="1" max="2" min="2" width="9.138571428571428"/>
     <col customWidth="1" max="3" min="3" width="21.99571428571429"/>
     <col customWidth="1" max="4" min="4" width="8.710000000000001"/>
-    <col customWidth="1" max="5" min="5" width="11.28142857142857"/>
+    <col customWidth="1" max="5" min="5" width="12.99571428571429"/>
     <col customWidth="1" max="6" min="6" width="6.424285714285715"/>
     <col customWidth="1" max="7" min="7" width="11.42428571428571"/>
     <col customWidth="1" max="8" min="8" width="12.71"/>
@@ -657,36 +657,36 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>61013339</v>
+        <v>61017108</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>CDC 100+svs</t>
+          <t>CAS 100 Santoor</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>785</v>
+        <v>268</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>9420</v>
+        <v>2144</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="7">
@@ -694,36 +694,36 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>61017108</v>
+        <v>1601052</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>CAS 100 Santoor</t>
+          <t>COL DEN/CRM 100G - CSD</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>BARODA</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>2144</v>
+        <v>3000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="8">
@@ -731,11 +731,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1601052</v>
+        <v>1608101</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>COL DEN/CRM 100G - CSD</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -754,35 +754,35 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>750</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>9000</v>
+        <v>420</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="9">
       <c r="A9" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1608101</v>
+        <v>1601379</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>CTP 50 Fluoridated</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>IN72</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>GUWAHATI</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="10">
@@ -805,36 +805,36 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1608101</v>
+        <v>1602154</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>COL HERBAL 100 GMS</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>IN71</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>BANGALORE</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>3600</v>
+        <v>1200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="11">
@@ -851,12 +851,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>IN67</t>
+          <t>IN84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>INDORE</t>
+          <t>RAIPUR</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -888,27 +888,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>IN68</t>
+          <t>IN91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>BARODA</t>
+          <t>SILIGURI</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="13">
@@ -916,21 +916,21 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1601052</v>
+        <v>1608101</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>COL DEN/CRM 100G - CSD</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>IN67</t>
+          <t>IN83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>INDORE</t>
+          <t>AURANGABAD</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -939,50 +939,52 @@
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>2400</v>
+        <v>4200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="14">
       <c r="A14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>1608101</v>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IN01005A</t>
+        </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>Total 120g - 9 dz ca</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>500</v>
+        <v>267</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>3000</v>
+        <v>2403</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="15">
@@ -991,37 +993,37 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>IN01005A</t>
+          <t>IN01183A</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Total 120g - 9 dz ca</t>
+          <t>Sen Mega Saver 80g</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>IN71</t>
+          <t>IN83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>BANGALORE</t>
+          <t>AURANGABAD</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>603</v>
+        <v>120</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="16">
@@ -1030,37 +1032,37 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>IN01005A</t>
+          <t>IN01183A</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Total 120g - 9 dz ca</t>
+          <t>Sen Mega Saver 80g</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="17">
@@ -1077,17 +1079,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>IN71</t>
+          <t>IN84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>BANGALORE</t>
+          <t>RAIPUR</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
@@ -1114,27 +1116,27 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>IN67</t>
+          <t>IN91</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>INDORE</t>
+          <t>SILIGURI</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>24</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>4800</v>
+        <v>7200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="19">
@@ -1142,73 +1144,36 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>61015749</v>
+        <v>61016950</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Cibaca 20g+10g Free</t>
+          <t>Cibaca 20g+Tbr Free</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>IN67</t>
+          <t>IN91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>INDORE</t>
+          <t>SILIGURI</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>4992</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.5" r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>61016950</v>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Cibaca 20g+Tbr Free</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>IN73</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>PATNA</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I03</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>1333</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>15996</v>
+        <v>2400</v>
       </c>
     </row>
   </sheetData>

--- a/report/input/web_north.xlsx
+++ b/report/input/web_north.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,9 +446,9 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="8.424285714285716"/>
     <col customWidth="1" max="2" min="2" width="9.138571428571428"/>
-    <col customWidth="1" max="3" min="3" width="21.99571428571429"/>
+    <col customWidth="1" max="3" min="3" width="17.71"/>
     <col customWidth="1" max="4" min="4" width="8.710000000000001"/>
-    <col customWidth="1" max="5" min="5" width="12.99571428571429"/>
+    <col customWidth="1" max="5" min="5" width="14.13857142857143"/>
     <col customWidth="1" max="6" min="6" width="6.424285714285715"/>
     <col customWidth="1" max="7" min="7" width="11.42428571428571"/>
     <col customWidth="1" max="8" min="8" width="12.71"/>
@@ -580,39 +580,37 @@
       <c r="A4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>in01067a</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>61017108</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Total 120 + Premia</t>
+          <t>CAS 100 Santoor</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>MADRAS</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1197</v>
+        <v>544</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="5">
@@ -620,36 +618,36 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>61017108</v>
+        <v>61016950</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>CAS 100 Santoor</t>
+          <t>Cibaca 20g+Tbr Free</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>IN64</t>
+          <t>IN73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>MADRAS</t>
+          <t>PATNA</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>68</v>
+        <v>1600</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>544</v>
+        <v>19200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="6">
@@ -657,21 +655,21 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>61017108</v>
+        <v>1608101</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>CAS 100 Santoor</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN73</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>PATNA</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -680,13 +678,13 @@
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>268</v>
+        <v>547</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>2144</v>
+        <v>3282</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="7">
@@ -694,36 +692,36 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1601052</v>
+        <v>1600908</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>COL DEN/CRM 100G - CSD</t>
+          <t>Col Active salt 200g</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>IN68</t>
+          <t>IN69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>BARODA</t>
+          <t>HYDERABAD</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="8">
@@ -731,21 +729,21 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1608101</v>
+        <v>1600908</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>Col Active salt 200g</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>IN68</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>BARODA</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -754,50 +752,50 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>70</v>
+        <v>596</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>420</v>
+        <v>3576</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="9">
       <c r="A9" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1601379</v>
+        <v>1601013</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>CTP 50 Fluoridated</t>
+          <t>COL DEN/CRM 250G</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HYDERABAD</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>2400</v>
+        <v>300</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="10">
@@ -805,36 +803,36 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1602154</v>
+        <v>61017180</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>COL HERBAL 100 GMS</t>
+          <t>Total 240 g</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>HYDERABAD</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="11">
@@ -842,21 +840,21 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1608101</v>
+        <v>61017180</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>Total 240 g</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>IN84</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>RAIPUR</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -865,150 +863,148 @@
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="12">
       <c r="A12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>1608101</v>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IN01067A</t>
+        </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>Total 120 + Premia</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>IN91</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>SILIGURI</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>400</v>
+        <v>133</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>2400</v>
+        <v>1197</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="13">
       <c r="A13" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1608101</v>
+        <v>1601339</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>CTP 100 Fluoridated</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>IN83</t>
+          <t>IN69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>AURANGABAD</t>
+          <t>HYDERABAD</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>700</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>4200</v>
+        <v>304</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="14">
       <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>IN01005A</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>1601379</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Total 120g - 9 dz ca</t>
+          <t>CTP 50 Fluoridated</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>HYDERABAD</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>2403</v>
+        <v>304</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="15">
       <c r="A15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>IN01183A</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>1608101</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Sen Mega Saver 80g</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>IN83</t>
+          <t>IN67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>AURANGABAD</t>
+          <t>INDORE</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1017,37 +1013,35 @@
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>120</v>
+        <v>4200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="16">
       <c r="A16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>IN01183A</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>61015749</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Sen Mega Saver 80g</t>
+          <t>Cibaca 20g+10g Free</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>INDORE</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1056,13 +1050,13 @@
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>400</v>
+        <v>83</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>2400</v>
+        <v>1992</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="17">
@@ -1070,58 +1064,58 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>61016004</v>
+        <v>61005335</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>CDC 44gm Bundle</t>
+          <t>CMF 19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>IN84</t>
+          <t>IN72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>RAIPUR</t>
+          <t>GUWAHATI</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>24</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>3600</v>
+        <v>7608</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="18">
       <c r="A18" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>61016004</v>
+        <v>61005674</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>CDC 44gm Bundle</t>
+          <t>Doy BO 750 ml</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>IN91</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>SILIGURI</t>
+          <t>East Hub</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1130,50 +1124,531 @@
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>7200</v>
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="19">
       <c r="A19" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="n">
+        <v>61010206</v>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>BW AR 250 Dom.</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="20">
+      <c r="A20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>61010204</v>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>BW MT 250 ml Loc.</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>61016950</v>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Cibaca 20g+Tbr Free</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>IN91</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>SILIGURI</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>IN67</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>INDORE</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>I01</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="22">
+      <c r="A22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1601013</v>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>COL DEN/CRM 250G</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>IN82</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>D.C.</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>I01</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>4200</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="23">
+      <c r="A23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>1600958</v>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Col Active Salt 100g</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>IN82</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>D.C.</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>I01</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>275</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="24">
+      <c r="A24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>1608101</v>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Cib 175</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>IN66</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>BHUBANESWAR</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>I03</t>
         </is>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>2400</v>
+      <c r="G24" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="25">
+      <c r="A25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>1608101</v>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Cib 175</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>IN86</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>RANCHI</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="26">
+      <c r="A26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>61016004</v>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>CDC 44gm Bundle</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>IN69</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>HYDERABAD</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="27">
+      <c r="A27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>61016569</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>CAS 44 6+1</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>IN69</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>HYDERABAD</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>1152</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="28">
+      <c r="A28" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>61010218</v>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>BW MT 750 ml Dom.</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="29">
+      <c r="A29" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>61010218</v>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>BW MT 750 ml Dom.</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>IN97</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>HUBLI DC</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="30">
+      <c r="A30" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>61010219</v>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>BW AR 750 ml Dom.</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="31">
+      <c r="A31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>61010219</v>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>BW AR 750 ml Dom.</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>IN97</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>HUBLI DC</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="32">
+      <c r="A32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>61010557</v>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>LHW SM 250 Dom,</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>IN97</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>HUBLI DC</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/report/input/web_north.xlsx
+++ b/report/input/web_north.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="8.424285714285716"/>
     <col customWidth="1" max="2" min="2" width="9.138571428571428"/>
-    <col customWidth="1" max="3" min="3" width="17.71"/>
+    <col customWidth="1" max="3" min="3" width="18.85285714285714"/>
     <col customWidth="1" max="4" min="4" width="8.710000000000001"/>
     <col customWidth="1" max="5" min="5" width="14.13857142857143"/>
     <col customWidth="1" max="6" min="6" width="6.424285714285715"/>
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1600</v>
+        <v>1126</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>12</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>19200</v>
+        <v>13512</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="6">
@@ -655,36 +655,36 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1608101</v>
+        <v>1600908</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>Col Active salt 200g</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>IN73</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>PATNA</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>547</v>
+        <v>966</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>3282</v>
+        <v>5796</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="7">
@@ -692,36 +692,36 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1600908</v>
+        <v>61017180</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Col Active salt 200g</t>
+          <t>Total 240 g</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>IN69</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>HYDERABAD</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>3600</v>
+        <v>750</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="8">
@@ -729,161 +729,159 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1600908</v>
+        <v>61005335</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Col Active salt 200g</t>
+          <t>CMF 19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>GUWAHATI</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>596</v>
+        <v>317</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>3576</v>
+        <v>7608</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="9">
       <c r="A9" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1601013</v>
+        <v>61005674</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>COL DEN/CRM 250G</t>
+          <t>Doy BO 750 ml</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>IN69</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>HYDERABAD</t>
+          <t>East Hub</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="10">
       <c r="A10" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>61017180</v>
+        <v>61010206</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Total 240 g</t>
+          <t>BW AR 250 Dom.</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>IN69</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>HYDERABAD</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="11">
       <c r="A11" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>61017180</v>
+        <v>61010204</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Total 240 g</t>
+          <t>BW MT 250 ml Loc.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>750</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>2250</v>
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="12">
       <c r="A12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>IN01067A</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>1601013</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Total 120 + Premia</t>
+          <t>COL DEN/CRM 250G</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -902,109 +900,109 @@
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>133</v>
+        <v>1400</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1197</v>
+        <v>4200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="13">
       <c r="A13" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1601339</v>
+        <v>1608101</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>CTP 100 Fluoridated</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>IN69</t>
+          <t>IN66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>HYDERABAD</t>
+          <t>BHUBANESWAR</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>304</v>
+        <v>3000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="14">
       <c r="A14" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1601379</v>
+        <v>1608101</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>CTP 50 Fluoridated</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>IN69</t>
+          <t>IN86</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>HYDERABAD</t>
+          <t>RANCHI</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>304</v>
+        <v>3000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="15">
       <c r="A15" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1608101</v>
+        <v>61010557</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>LHW SM 250 Dom,</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>IN67</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>INDORE</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1013,13 +1011,13 @@
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>700</v>
+        <v>398</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>4200</v>
+        <v>796</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="16">
@@ -1027,36 +1025,36 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>61015749</v>
+        <v>1600908</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Cibaca 20g+10g Free</t>
+          <t>Col Active salt 200g</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>IN67</t>
+          <t>IN87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>INDORE</t>
+          <t>VIJAYWADA</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>83</v>
+        <v>550</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>1992</v>
+        <v>3300</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="17">
@@ -1064,21 +1062,21 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>61005335</v>
+        <v>1600931</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>CMF 19</t>
+          <t>CAS Neem 200</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>IN72</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>GUWAHATI</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1087,72 +1085,72 @@
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>317</v>
+        <v>100</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>7608</v>
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="18">
       <c r="A18" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>61005674</v>
+        <v>1600933</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Doy BO 750 ml</t>
+          <t>CAS Neem 100</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>East Hub</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>30</v>
+        <v>1200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="19">
       <c r="A19" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>61010206</v>
+        <v>1601013</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>BW AR 250 Dom.</t>
+          <t>COL DEN/CRM 250G</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>BHUBANESWAR</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1161,35 +1159,35 @@
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="20">
       <c r="A20" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>61010204</v>
+        <v>1601013</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>BW MT 250 ml Loc.</t>
+          <t>COL DEN/CRM 250G</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>PATNA</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1198,13 +1196,13 @@
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="21">
@@ -1212,36 +1210,36 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>61016950</v>
+        <v>1601013</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Cibaca 20g+Tbr Free</t>
+          <t>COL DEN/CRM 250G</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>IN67</t>
+          <t>IN87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>INDORE</t>
+          <t>VIJAYWADA</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="22">
@@ -1258,27 +1256,27 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN71</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>BANGALORE</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1400</v>
+        <v>267</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>3</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>4200</v>
+        <v>801</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="23">
@@ -1286,36 +1284,36 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1600958</v>
+        <v>1602154</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Col Active Salt 100g</t>
+          <t>COL HERBAL 100 GMS</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>BANGALORE</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>12</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>3300</v>
+        <v>300</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="24">
@@ -1323,36 +1321,36 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1608101</v>
+        <v>1602154</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>COL HERBAL 100 GMS</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>IN66</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>BHUBANESWAR</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="25">
@@ -1369,12 +1367,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>IN86</t>
+          <t>IN73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>RANCHI</t>
+          <t>PATNA</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1383,13 +1381,13 @@
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="26">
@@ -1397,21 +1395,21 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>61016004</v>
+        <v>1608101</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>CDC 44gm Bundle</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>IN69</t>
+          <t>IN59</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>HYDERABAD</t>
+          <t>COIMBATORE</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1420,13 +1418,13 @@
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>6000</v>
+        <v>2400</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="27">
@@ -1434,58 +1432,58 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>61016569</v>
+        <v>1608102</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>CAS 44 6+1</t>
+          <t>175+175</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>IN69</t>
+          <t>IN67</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>HYDERABAD</t>
+          <t>INDORE</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>1152</v>
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="28">
       <c r="A28" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>61010218</v>
+        <v>61016120</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>BW MT 750 ml Dom.</t>
+          <t>CAS 44</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN66</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>BHUBANESWAR</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1494,109 +1492,109 @@
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>50</v>
+        <v>288</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="29">
       <c r="A29" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>61010218</v>
+        <v>61016120</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>BW MT 750 ml Dom.</t>
+          <t>CAS 44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN73</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>PATNA</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>50</v>
+        <v>288</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="30">
       <c r="A30" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>61010219</v>
+        <v>61016120</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>BW AR 750 ml Dom.</t>
+          <t>CAS 44</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>100</v>
+        <v>6000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="31">
       <c r="A31" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>61010219</v>
+        <v>61017180</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>BW AR 750 ml Dom.</t>
+          <t>Total 240 g</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>VIJAYWADA</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -1605,35 +1603,35 @@
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="32">
       <c r="A32" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>61010557</v>
+        <v>61017180</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>LHW SM 250 Dom,</t>
+          <t>Total 240 g</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN71</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>BANGALORE</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -1642,13 +1640,467 @@
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="33">
+      <c r="A33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>IN01003A</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Col Herbal 200g - 8</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>IN71</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>BANGALORE</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="34">
+      <c r="A34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>IN01003A</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Col Herbal 200g - 8</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>IN66</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>BHUBANESWAR</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="35">
+      <c r="A35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>IN01005A</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Total 120g - 9 dz ca</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>IN87</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>VIJAYWADA</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="36">
+      <c r="A36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>IN01183A</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Sen Mega Saver 80g</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>IN87</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>VIJAYWADA</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="37">
+      <c r="A37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>61016004</v>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>CDC 44gm Bundle</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>IN86</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>RANCHI</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="38">
+      <c r="A38" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>61010218</v>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>BW MT 750 ml Dom.</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="39">
+      <c r="A39" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>61010218</v>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>BW MT 750 ml Dom.</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>IN97</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>HUBLI DC</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="40">
+      <c r="A40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>61010219</v>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>BW AR 750 ml Dom.</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>IN98</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>EAST HUB</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="41">
+      <c r="A41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>61010219</v>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>BW AR 750 ml Dom.</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>IN97</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>HUBLI DC</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="42">
+      <c r="A42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>61010557</v>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>LHW SM 250 Dom,</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>IN97</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>HUBLI DC</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I04</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="43">
+      <c r="A43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>IN00935A</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Sensitive 5+1</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>IN82</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>D.C.</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I01</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>850</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>10200</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.5" r="44">
+      <c r="A44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>61016950</v>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Cibaca 20g+Tbr Free</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>IN86</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>RANCHI</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/report/input/web_north.xlsx
+++ b/report/input/web_north.xlsx
@@ -446,7 +446,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="8.424285714285716"/>
     <col customWidth="1" max="2" min="2" width="9.138571428571428"/>
-    <col customWidth="1" max="3" min="3" width="18.85285714285714"/>
+    <col customWidth="1" max="3" min="3" width="21.99571428571429"/>
     <col customWidth="1" max="4" min="4" width="8.710000000000001"/>
     <col customWidth="1" max="5" min="5" width="14.13857142857143"/>
     <col customWidth="1" max="6" min="6" width="6.424285714285715"/>
@@ -507,21 +507,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>61016004</v>
+        <v>1600906</v>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>CDC 44gm Bundle</t>
+          <t>CAS 200+100</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>IN64</t>
+          <t>IN87</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>MADRAS</t>
+          <t>VIJAYWADA</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1848</v>
+        <v>1200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="3">
@@ -544,21 +544,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1600906</v>
+        <v>1600931</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>CAS 200+100</t>
+          <t>CAS Neem 200</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>IN64</t>
+          <t>IN87</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>MADRAS</t>
+          <t>VIJAYWADA</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -567,35 +567,35 @@
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="4">
       <c r="A4" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>61017108</v>
+        <v>1602881</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>CAS 100 Santoor</t>
+          <t>Pain Out Tube</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>IN64</t>
+          <t>IN87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>MADRAS</t>
+          <t>VIJAYWADA</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -604,13 +604,13 @@
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>544</v>
+        <v>120</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="5">
@@ -618,36 +618,36 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>61016950</v>
+        <v>1608101</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Cibaca 20g+Tbr Free</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>IN73</t>
+          <t>IN87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>PATNA</t>
+          <t>VIJAYWADA</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1126</v>
+        <v>300</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>13512</v>
+        <v>1800</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="6">
@@ -655,36 +655,36 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1600908</v>
+        <v>61016120</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Col Active salt 200g</t>
+          <t>CAS 44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN66</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>BHUBANESWAR</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>966</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>5796</v>
+        <v>1200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="7">
@@ -692,36 +692,36 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>61017180</v>
+        <v>1600958</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Total 240 g</t>
+          <t>Col Active Salt 100g</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>SILIGURI</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="8">
@@ -729,21 +729,21 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>61005335</v>
+        <v>61016950</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>CMF 19</t>
+          <t>Cibaca 20g+Tbr Free</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>IN72</t>
+          <t>IN91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>GUWAHATI</t>
+          <t>SILIGURI</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -752,35 +752,35 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>317</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>7608</v>
+        <v>1200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="9">
       <c r="A9" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>61005674</v>
+        <v>1601002</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Doy BO 750 ml</t>
+          <t>COL DEN/CRM 200G - CSD</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>East Hub</t>
+          <t>BHUBANESWAR</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -789,420 +789,420 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>30</v>
+        <v>1200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="10">
       <c r="A10" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>61010206</v>
+        <v>1600958</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>BW AR 250 Dom.</t>
+          <t>Col Active Salt 100g</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>150</v>
+        <v>3096</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="11">
       <c r="A11" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>61010204</v>
+        <v>1601240</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>BW MT 250 ml Loc.</t>
+          <t>CSPR 70</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="12">
       <c r="A12" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1601013</v>
+        <v>1607715</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>COL DEN/CRM 250G</t>
+          <t>Sens 250ml(import)</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN80</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>MORINDA</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1400</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>4200</v>
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="13">
       <c r="A13" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1608101</v>
+        <v>1607750</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>FM 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>IN66</t>
+          <t>IN65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>BHUBANESWAR</t>
+          <t>KANPUR</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>3000</v>
+        <v>60</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="14">
       <c r="A14" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1608101</v>
+        <v>1607750</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>FM 100</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>IN86</t>
+          <t>IN76</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>RANCHI</t>
+          <t>GAZIABAD</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>500</v>
+        <v>33</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>3000</v>
+        <v>99</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="15">
       <c r="A15" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>61010557</v>
+        <v>61000414</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>LHW SM 250 Dom,</t>
+          <t>Phosflur 250 ml</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>GAZIABAD</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>398</v>
+        <v>100</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>796</v>
+        <v>100</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="16">
       <c r="A16" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1600908</v>
+        <v>61000832</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Col Active salt 200g</t>
+          <t>LHW MAC 500 ml</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>IN87</t>
+          <t>IN65</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>VIJAYWADA</t>
+          <t>KANPUR</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>550</v>
+        <v>8</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>3300</v>
+        <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="17">
       <c r="A17" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1600931</v>
+        <v>61010204</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>CAS Neem 200</t>
+          <t>BW MT 250 ml Loc.</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>KANPUR</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="18">
       <c r="A18" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1600933</v>
+        <v>61010204</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>CAS Neem 100</t>
+          <t>BW MT 250 ml Loc.</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN75</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>JAIPUR</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>1200</v>
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="19">
       <c r="A19" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1601013</v>
+        <v>61010204</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>COL DEN/CRM 250G</t>
+          <t>BW MT 250 ml Loc.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>IN66</t>
+          <t>IN76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>BHUBANESWAR</t>
+          <t>GAZIABAD</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="20">
       <c r="A20" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1601013</v>
+        <v>61010204</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>COL DEN/CRM 250G</t>
+          <t>BW MT 250 ml Loc.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>IN73</t>
+          <t>IN80</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>PATNA</t>
+          <t>MORINDA</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I02</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="21">
@@ -1210,21 +1210,21 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1601013</v>
+        <v>1600931</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>COL DEN/CRM 250G</t>
+          <t>CAS Neem 200</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>IN87</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>VIJAYWADA</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>600</v>
@@ -1244,61 +1244,61 @@
     </row>
     <row customHeight="1" ht="15.5" r="22">
       <c r="A22" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1601013</v>
+        <v>61018326</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>COL DEN/CRM 250G</t>
+          <t>PO Ecom MT+Loofah</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>IN71</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>BANGALORE</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>801</v>
+        <v>100</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="23">
       <c r="A23" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1602154</v>
+        <v>61018326</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>COL HERBAL 100 GMS</t>
+          <t>PO Ecom MT+Loofah</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>IN71</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>BANGALORE</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1307,25 +1307,25 @@
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>25</v>
+        <v>410</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="24">
       <c r="A24" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1602154</v>
+        <v>61018326</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>COL HERBAL 100 GMS</t>
+          <t>PO Ecom MT+Loofah</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1344,50 +1344,50 @@
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="25">
       <c r="A25" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1608101</v>
+        <v>61009506</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>LHW OM Doy 150gm</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>IN73</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>PATNA</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>400</v>
+        <v>112</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>2400</v>
+        <v>336</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="26">
@@ -1395,110 +1395,110 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1608101</v>
+        <v>1601002</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Cib 175</t>
+          <t>COL DEN/CRM 200G - CSD</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>IN59</t>
+          <t>IN84</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>COIMBATORE</t>
+          <t>RAIPUR</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="27">
       <c r="A27" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1608102</v>
+        <v>61010557</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>175+175</t>
+          <t>LHW SM 250 Dom,</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>IN67</t>
+          <t>IN98</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>INDORE</t>
+          <t>EAST HUB</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I03</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="28">
       <c r="A28" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>61016120</v>
+        <v>61006078</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>CAS 44</t>
+          <t>ZZ6+2 Sen Soft</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>IN66</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>BHUBANESWAR</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>288</v>
+        <v>12000</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="29">
@@ -1506,21 +1506,21 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>61016120</v>
+        <v>1608101</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>CAS 44</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>IN73</t>
+          <t>IN66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>PATNA</t>
+          <t>BHUBANESWAR</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -1529,72 +1529,76 @@
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>288</v>
+        <v>990</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="30">
       <c r="A30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>61016120</v>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>IN00697A</t>
+        </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>CAS 44</t>
+          <t>CS Clove MT Promo</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN87</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>VIJAYWADA</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>6000</v>
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="31">
       <c r="A31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>61017180</v>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>IN01003A</t>
+        </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Total 240 g</t>
+          <t>Col Herbal 200g - 8</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>IN87</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>VIJAYWADA</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -1603,74 +1607,74 @@
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>420</v>
+        <v>2400</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="32">
       <c r="A32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>61017180</v>
+        <v>3</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>IN00728A</t>
+        </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Total 240 g</t>
+          <t>Col Super Shine S</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>IN71</t>
+          <t>IN82</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>BANGALORE</t>
+          <t>D.C.</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>120</v>
+        <v>1800</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="33">
       <c r="A33" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>IN01003A</t>
-        </is>
+      <c r="B33" s="2" t="n">
+        <v>1600933</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Col Herbal 200g - 8</t>
+          <t>CAS Neem 100</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>IN71</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>BANGALORE</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -1679,76 +1683,72 @@
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>416</v>
+        <v>1200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="34">
       <c r="A34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>IN01003A</t>
-        </is>
+      <c r="B34" s="2" t="n">
+        <v>1601013</v>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Col Herbal 200g - 8</t>
+          <t>COL DEN/CRM 250G</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>IN66</t>
+          <t>IN87</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>BHUBANESWAR</t>
+          <t>VIJAYWADA</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>152</v>
+        <v>900</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="35">
       <c r="A35" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>IN01005A</t>
-        </is>
+      <c r="B35" s="2" t="n">
+        <v>1601013</v>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Total 120g - 9 dz ca</t>
+          <t>COL DEN/CRM 250G</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>IN87</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>VIJAYWADA</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -1757,49 +1757,47 @@
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>297</v>
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="36">
       <c r="A36" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>IN01183A</t>
-        </is>
+      <c r="B36" s="2" t="n">
+        <v>1601013</v>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Sen Mega Saver 80g</t>
+          <t>COL DEN/CRM 250G</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>IN87</t>
+          <t>IN68</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>VIJAYWADA</t>
+          <t>BARODA</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>600</v>
@@ -1810,159 +1808,163 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>61016004</v>
+        <v>1608101</v>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>CDC 44gm Bundle</t>
+          <t>Cib 175</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>IN86</t>
+          <t>IN84</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>RANCHI</t>
+          <t>RAIPUR</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>4800</v>
+        <v>2400</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="38">
       <c r="A38" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>61010218</v>
+        <v>1608102</v>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>BW MT 750 ml Dom.</t>
+          <t>175+175</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN84</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>RAIPUR</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="39">
       <c r="A39" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>61010218</v>
+        <v>1608102</v>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>BW MT 750 ml Dom.</t>
+          <t>175+175</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>IN97</t>
+          <t>IN68</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>HUBLI DC</t>
+          <t>BARODA</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>I04</t>
+          <t>I01</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>50</v>
+        <v>900</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="40">
       <c r="A40" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>61010219</v>
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>IN01183A</t>
+        </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>BW AR 750 ml Dom.</t>
+          <t>Sen Mega Saver 80g</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>IN98</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>EAST HUB</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="41">
       <c r="A41" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>61010219</v>
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>IN01005A</t>
+        </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>BW AR 750 ml Dom.</t>
+          <t>Total 120g - 9 dz ca</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -1981,25 +1983,27 @@
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>120</v>
+        <v>1197</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="42">
       <c r="A42" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>61010557</v>
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>IN01143A</t>
+        </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>LHW SM 250 Dom,</t>
+          <t>Tot Charcoal Saver</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -2018,89 +2022,87 @@
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="43">
       <c r="A43" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>IN00935A</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>61010557</v>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Sensitive 5+1</t>
+          <t>LHW SM 250 Dom,</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>IN82</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>D.C.</t>
+          <t>Hubli DC</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>I01</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>10200</v>
+        <v>600</v>
       </c>
     </row>
     <row customHeight="1" ht="15.5" r="44">
       <c r="A44" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>61016950</v>
+        <v>61010558</v>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Cibaca 20g+Tbr Free</t>
+          <t>LHW OM 250 ml</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>IN86</t>
+          <t>IN97</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>RANCHI</t>
+          <t>HUBLI DC</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>I03</t>
+          <t>I04</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
